--- a/data/trans_dic/P16A04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,96</t>
+          <t>0,96; 3,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,21</t>
+          <t>1,19; 5,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,55</t>
+          <t>1,67; 5,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,78</t>
+          <t>0,71; 2,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,11</t>
+          <t>0,31; 2,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,11</t>
+          <t>0,95; 4,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,71</t>
+          <t>0,32; 3,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,31</t>
+          <t>2,55; 6,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,9</t>
+          <t>0,87; 2,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,13</t>
+          <t>1,49; 4,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,78</t>
+          <t>1,4; 3,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,72</t>
+          <t>1,88; 3,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,64</t>
+          <t>0,27; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,85</t>
+          <t>0,92; 3,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,9</t>
+          <t>0,83; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,75; 2,99</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 4,71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 4,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 3,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,83; 3,12</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 3,97</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 2,95</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,08</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,98</t>
+          <t>0,99; 3,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,25</t>
+          <t>1,17; 3,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,85</t>
+          <t>0,86; 2,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,53</t>
+          <t>1,0; 2,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,82</t>
+          <t>0,81; 2,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,99</t>
+          <t>2,25; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,52</t>
+          <t>0,41; 2,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,62</t>
+          <t>0,82; 5,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,38</t>
+          <t>1,34; 7,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,38</t>
+          <t>1,19; 5,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,23</t>
+          <t>1,84; 9,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,28</t>
+          <t>2,88; 8,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,29</t>
+          <t>1,2; 3,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,19</t>
+          <t>2,21; 5,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,37</t>
+          <t>1,08; 3,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,49</t>
+          <t>1,15; 5,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,79</t>
+          <t>1,17; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,3</t>
+          <t>2,14; 4,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,32</t>
+          <t>1,57; 3,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,05</t>
+          <t>1,3; 3,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,31</t>
+          <t>1,92; 4,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,44</t>
+          <t>3,01; 6,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,87</t>
+          <t>2,32; 4,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,21</t>
+          <t>1,01; 3,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,03</t>
+          <t>1,71; 2,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,7</t>
+          <t>2,85; 4,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,59</t>
+          <t>1,98; 3,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,8</t>
+          <t>1,39; 2,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,14</t>
+          <t>1,55; 5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,22</t>
+          <t>1,83; 5,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,41</t>
+          <t>1,02; 3,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,29</t>
+          <t>1,02; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,22</t>
+          <t>1,21; 3,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,62</t>
+          <t>1,23; 3,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,67</t>
+          <t>1,41; 3,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,78</t>
+          <t>2,69; 6,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,93</t>
+          <t>1,75; 3,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,71</t>
+          <t>1,73; 3,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,1</t>
+          <t>1,51; 3,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,84</t>
+          <t>2,38; 4,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,73</t>
+          <t>0,32; 2,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,02</t>
+          <t>0,93; 9,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,68</t>
+          <t>1,11; 2,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,63</t>
+          <t>1,79; 3,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,63</t>
+          <t>0,95; 2,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,36</t>
+          <t>1,62; 3,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,26</t>
+          <t>1,01; 2,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,15</t>
+          <t>1,52; 3,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,42</t>
+          <t>0,93; 2,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,29</t>
+          <t>1,82; 4,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,33</t>
+          <t>1,39; 2,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,55</t>
+          <t>2,25; 3,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,61</t>
+          <t>1,61; 2,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,83</t>
+          <t>1,6; 2,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,83</t>
+          <t>1,74; 2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,47</t>
+          <t>2,32; 3,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,8</t>
+          <t>1,79; 2,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,7</t>
+          <t>2,35; 3,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,38</t>
+          <t>1,7; 2,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,3</t>
+          <t>2,47; 3,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,56</t>
+          <t>1,81; 2,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,04</t>
+          <t>2,18; 3,08</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antibióticos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11372</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13553</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7400</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7602</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4829</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18407</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13174</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18974</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18382</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25807</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4546; 18651</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5191; 22517</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7179; 23171</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3604; 14095</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>947; 8663</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2999; 15274</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1109; 11714</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11425; 28053</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6812; 21852</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11196; 32428</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10855; 28839</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17906; 35867</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7099</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7457</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9674</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7109</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6609</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13473</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15211</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11744</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14066</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1008; 10742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3823; 15480</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3136; 14396</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3413; 13523</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4822; 17520</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3103; 14731</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1070; 11780</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3192; 11950</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7347; 22771</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8791; 24362</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6426; 20547</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8387; 22107</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8902</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23153</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20889</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7762</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8151</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14795</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30500</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13919</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29040</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4380; 15861</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14070; 36533</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2134; 12614</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5451; 37057</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2244; 11752</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3070; 14519</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3056; 16213</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4806; 13868</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8520; 23712</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19604; 45216</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7463; 23759</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9592; 46866</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23399</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35322</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26667</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20733</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20449</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34697</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27261</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21156</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43848</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70019</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53929</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41889</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14528; 34386</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24708; 51304</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18086; 38030</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13497; 31155</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13740; 31684</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23061; 47518</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19183; 39852</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9901; 31454</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>33448; 58414</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>54820; 91006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39187; 68402</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27888; 58095</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10538</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16558</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12702</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9037</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13527</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16335</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17562</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>33798</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24065</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32892</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>30264</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42835</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5415; 18191</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9327; 26934</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6332; 22460</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4843; 15890</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6856; 22248</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9316; 27298</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10409; 27326</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22543; 52531</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16055; 34503</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21985; 45360</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20503; 42896</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>31254; 62178</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2956</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22174</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28228</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17904</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18131</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24097</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>30527</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20860</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26749</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6848</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9462</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>932; 7936</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2244; 22131</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13912; 32353</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19783; 39979</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10295; 26970</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12295; 26199</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15694; 36489</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>20909; 42791</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12782; 31814</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18237; 42661</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>58663</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>96805</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>69134</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>74134</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>74790</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>101318</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>79964</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>106252</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>133452</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>198123</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>149098</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>180386</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45492; 75694</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>76767; 120224</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>54543; 88346</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>53864; 94792</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>58613; 92461</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>82106; 123943</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>63334; 101227</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>84086; 129461</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>113043; 158522</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>171328; 228404</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>125308; 176326</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>151550; 214195</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
